--- a/UI/Innocellence.Web/Content/焊材统计表.xlsx
+++ b/UI/Innocellence.Web/Content/焊材统计表.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23231"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\project\xbcx\CAD\UI\Innocellence.Web\Content\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7816E19-6C2A-4998-92A0-D600195D8222}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22DDA890-749E-469D-A786-9AFBE26069C0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="1230" windowWidth="19200" windowHeight="8970" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="焊材" sheetId="1" r:id="rId1"/>
@@ -416,7 +416,7 @@
   <dimension ref="A1:P1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F1" sqref="F1:F1048576"/>
+      <selection activeCell="O1" sqref="O1:O1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -447,25 +447,25 @@
         <v>7</v>
       </c>
       <c r="I1" t="s">
+        <v>10</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" t="s">
+        <v>14</v>
+      </c>
+      <c r="L1" t="s">
+        <v>5</v>
+      </c>
+      <c r="M1" t="s">
+        <v>15</v>
+      </c>
+      <c r="N1" t="s">
+        <v>11</v>
+      </c>
+      <c r="O1" t="s">
         <v>12</v>
-      </c>
-      <c r="J1" t="s">
-        <v>10</v>
-      </c>
-      <c r="K1" t="s">
-        <v>9</v>
-      </c>
-      <c r="L1" t="s">
-        <v>11</v>
-      </c>
-      <c r="M1" t="s">
-        <v>14</v>
-      </c>
-      <c r="N1" t="s">
-        <v>5</v>
-      </c>
-      <c r="O1" t="s">
-        <v>15</v>
       </c>
       <c r="P1" t="s">
         <v>13</v>

--- a/UI/Innocellence.Web/Content/焊材统计表.xlsx
+++ b/UI/Innocellence.Web/Content/焊材统计表.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23328"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\project\xbcx\CAD\UI\Innocellence.Web\Content\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22DDA890-749E-469D-A786-9AFBE26069C0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E46DE38-B7AA-48A5-8833-740938BD69EB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="1230" windowWidth="19200" windowHeight="8970" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="焊材" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
     <t>序号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -47,10 +47,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>板件数量</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>焊缝类型</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -63,10 +59,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>长度</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>焊缝截面积</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -83,11 +75,15 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>焊接边数</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>梁段数量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>焊缝长度</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>焊缝数量</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -413,15 +409,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:P1"/>
+  <dimension ref="A1:O1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O1" sqref="O1:O1048576"/>
+      <selection activeCell="K1" sqref="K1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -438,37 +434,34 @@
         <v>4</v>
       </c>
       <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H1" t="s">
         <v>6</v>
       </c>
-      <c r="G1" t="s">
+      <c r="I1" t="s">
         <v>8</v>
       </c>
-      <c r="H1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" t="s">
-        <v>10</v>
-      </c>
       <c r="J1" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="K1" t="s">
         <v>14</v>
       </c>
       <c r="L1" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="M1" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="N1" t="s">
+        <v>10</v>
+      </c>
+      <c r="O1" t="s">
         <v>11</v>
-      </c>
-      <c r="O1" t="s">
-        <v>12</v>
-      </c>
-      <c r="P1" t="s">
-        <v>13</v>
       </c>
     </row>
   </sheetData>
